--- a/biology/Zoologie/Azuré_de_l'androsace/Azuré_de_l'androsace.xlsx
+++ b/biology/Zoologie/Azuré_de_l'androsace/Azuré_de_l'androsace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27androsace</t>
+          <t>Azuré_de_l'androsace</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agriades pyrenaica
 L’Azuré de l'androsace (Agriades pyrenaica) est une espèce de lépidoptères de la famille des Lycaenidae et de la sous-famille des Polyommatinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27androsace</t>
+          <t>Azuré_de_l'androsace</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,54 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le taxon Agriades pyrenaica a été décrit par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1840 en tant que Lycaena orbitulus pyrenaica[1],[2].
-Synonymes[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taxon Agriades pyrenaica a été décrit par l'entomologiste français Jean-Baptiste Alphonse Dechauffour de Boisduval en 1840 en tant que Lycaena orbitulus pyrenaica,.
+Synonymes :
 Lycaena orbitulus pyrenaica Boisduval, 1840 — protonyme
 Agriades pyrenaicus (Boisduval, 1840)
 Plebejus pyrenaicus (Boisduval, 1840)
 Plebejus pyrenaica (Boisduval, 1840)
-La combinaison Agriades pyrenaicus, souvent employée, est fautive car l'adjectif latin pyrenaicus, -a, -um doit être accordé avec le nom Agriades qui est féminin[3].
-Sous-espèces
-Plusieurs sous-espèces ont été décrites[2] :
+La combinaison Agriades pyrenaicus, souvent employée, est fautive car l'adjectif latin pyrenaicus, -a, -um doit être accordé avec le nom Agriades qui est féminin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Azuré_de_l'androsace</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27androsace</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plusieurs sous-espèces ont été décrites :
 Agriades pyrenaica pyrenaica (Boisduval, 1840) — centre des Pyrénées.
 Agriades pyrenaica asturiensis (Oberthür, 1910) — monts Cantabriques.
 Agriades pyrenaica ergane (Higgins, 1981) — Ukraine, Russie.
@@ -530,45 +579,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_de_l%27androsace</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27androsace</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Noms vernaculaires</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En français : l’Azuré de l'androsace.
-En anglais : Gavarnie blue.
-En espagnol : Niña Gris[2].</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27androsace</t>
+          <t>Azuré_de_l'androsace</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,15 +600,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un petit papillon de couleur grise suffusé de bleu dont les ailes sont bordées d'une ligne blanche. Au recto une tache grise centre chaque aile, au verso les antérieures sont ornées de points noirs cerclés de blanc et les postérieures d'une ligne sub-marginale de points blancs certains centrés de jaune.
-Espèce proche
-Agriades glandon, également présent dans les Pyrénées.
-</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En français : l’Azuré de l'androsace.
+En anglais : Gavarnie blue.
+En espagnol : Niña Gris.</t>
         </is>
       </c>
     </row>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27androsace</t>
+          <t>Azuré_de_l'androsace</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,16 +634,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en juin et juillet, une génération.
-Il hiverne au stade de chenille.
-Plantes hôtes
-Sa plante hôte est Androsace villosa[2].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un petit papillon de couleur grise suffusé de bleu dont les ailes sont bordées d'une ligne blanche. Au recto une tache grise centre chaque aile, au verso les antérieures sont ornées de points noirs cerclés de blanc et les postérieures d'une ligne sub-marginale de points blancs certains centrés de jaune.
 </t>
         </is>
       </c>
@@ -636,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27androsace</t>
+          <t>Azuré_de_l'androsace</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,14 +667,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'espèce est présente en petites colonies isolées dans les Pyrénées (en Espagne et en France, dans les départements des Pyrénées-Atlantiques et des Hautes-Pyrénées[4]), dans les monts Cantabriques, en Ukraine et Russie, dans les Balkans (Monts Vran de Bosnie, Durmitor de Serbie, Alibotus de Bulgarie, monts Orvilos de Grèce), en Asie mineure et dans le Caucase[2].
-Biotope
-C'est un papillon de montagne, présent entre 1 500 et 2 300 m d'altitude sur les pentes herbues sèches.
+          <t>Espèce proche</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agriades glandon, également présent dans les Pyrénées.
 </t>
         </is>
       </c>
@@ -669,7 +689,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_de_l%27androsace</t>
+          <t>Azuré_de_l'androsace</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,10 +704,157 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en juin et juillet, une génération.
+Il hiverne au stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_de_l'androsace</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27androsace</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa plante hôte est Androsace villosa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_de_l'androsace</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27androsace</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente en petites colonies isolées dans les Pyrénées (en Espagne et en France, dans les départements des Pyrénées-Atlantiques et des Hautes-Pyrénées), dans les monts Cantabriques, en Ukraine et Russie, dans les Balkans (Monts Vran de Bosnie, Durmitor de Serbie, Alibotus de Bulgarie, monts Orvilos de Grèce), en Asie mineure et dans le Caucase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_de_l'androsace</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27androsace</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon de montagne, présent entre 1 500 et 2 300 m d'altitude sur les pentes herbues sèches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Azuré_de_l'androsace</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_de_l%27androsace</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier[réf. souhaitée].
 </t>
